--- a/corona-search-trends/datasets/Cases as of March 15, 2020-converted.xlsx
+++ b/corona-search-trends/datasets/Cases as of March 15, 2020-converted.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Datasets\Epidemic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\htdocs\coronatracker-analytics\corona-search-trends\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8205" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="5010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -17,13 +17,13 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId3"/>
+    <pivotCache cacheId="16" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="352">
   <si>
     <r>
       <rPr>
@@ -3441,13 +3441,22 @@
   </si>
   <si>
     <t>Count of Age</t>
+  </si>
+  <si>
+    <t>Mortality</t>
+  </si>
+  <si>
+    <t>Mortality Date</t>
+  </si>
+  <si>
+    <t>Dead</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3490,6 +3499,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -3631,7 +3647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3713,6 +3729,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="21"/>
     </xf>
@@ -3722,11 +3744,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="21"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5489,7 +5520,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -5878,7 +5909,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="27" t="s">
         <v>334</v>
       </c>
       <c r="B3" t="s">
@@ -5889,7 +5920,7 @@
       <c r="A4" t="s">
         <v>335</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="28">
         <v>13</v>
       </c>
     </row>
@@ -5897,7 +5928,7 @@
       <c r="A5" t="s">
         <v>336</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="28">
         <v>3</v>
       </c>
     </row>
@@ -5905,7 +5936,7 @@
       <c r="A6" t="s">
         <v>337</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="28">
         <v>9</v>
       </c>
     </row>
@@ -5913,7 +5944,7 @@
       <c r="A7" t="s">
         <v>338</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="28">
         <v>19</v>
       </c>
     </row>
@@ -5921,7 +5952,7 @@
       <c r="A8" t="s">
         <v>339</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="28">
         <v>2</v>
       </c>
     </row>
@@ -5929,7 +5960,7 @@
       <c r="A9" t="s">
         <v>340</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="28">
         <v>35</v>
       </c>
     </row>
@@ -5937,7 +5968,7 @@
       <c r="A10" t="s">
         <v>341</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="28">
         <v>12</v>
       </c>
     </row>
@@ -5945,7 +5976,7 @@
       <c r="A11" t="s">
         <v>342</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="28">
         <v>26</v>
       </c>
     </row>
@@ -5953,7 +5984,7 @@
       <c r="A12" t="s">
         <v>343</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="28">
         <v>2</v>
       </c>
     </row>
@@ -5961,7 +5992,7 @@
       <c r="A13" t="s">
         <v>344</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="28">
         <v>1</v>
       </c>
     </row>
@@ -5969,7 +6000,7 @@
       <c r="A14" t="s">
         <v>345</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="28">
         <v>4</v>
       </c>
     </row>
@@ -5977,7 +6008,7 @@
       <c r="A15" t="s">
         <v>346</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="28">
         <v>14</v>
       </c>
     </row>
@@ -5985,7 +6016,7 @@
       <c r="A16" t="s">
         <v>347</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="28">
         <v>140</v>
       </c>
     </row>
@@ -5996,10 +6027,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J142"/>
+  <dimension ref="A1:L142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J142" sqref="A2:J142"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6010,25 +6044,28 @@
     <col min="5" max="8" width="20.6640625" customWidth="1"/>
     <col min="9" max="9" width="20.83203125" customWidth="1"/>
     <col min="10" max="10" width="20.6640625" customWidth="1"/>
+    <col min="11" max="12" width="19" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:12" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+    </row>
+    <row r="2" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -6059,8 +6096,14 @@
       <c r="J2" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
@@ -6091,8 +6134,10 @@
       <c r="J3" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
@@ -6123,8 +6168,12 @@
       <c r="J4" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K4" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>25</v>
       </c>
@@ -6155,8 +6204,10 @@
       <c r="J5" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>28</v>
       </c>
@@ -6187,8 +6238,10 @@
       <c r="J6" s="11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>36</v>
       </c>
@@ -6219,8 +6272,12 @@
       <c r="J7" s="11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K7" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>40</v>
       </c>
@@ -6251,8 +6308,12 @@
       <c r="J8" s="11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K8" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>43</v>
       </c>
@@ -6283,8 +6344,10 @@
       <c r="J9" s="15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>49</v>
       </c>
@@ -6315,8 +6378,10 @@
       <c r="J10" s="15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="40.700000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" ht="40.700000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>53</v>
       </c>
@@ -6347,8 +6412,12 @@
       <c r="J11" s="18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K11" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="1:12" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>58</v>
       </c>
@@ -6379,8 +6448,10 @@
       <c r="J12" s="15" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>62</v>
       </c>
@@ -6411,8 +6482,10 @@
       <c r="J13" s="18" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>66</v>
       </c>
@@ -6443,8 +6516,12 @@
       <c r="J14" s="15" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K14" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>70</v>
       </c>
@@ -6475,8 +6552,10 @@
       <c r="J15" s="15" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>73</v>
       </c>
@@ -6507,8 +6586,10 @@
       <c r="J16" s="15" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>76</v>
       </c>
@@ -6539,8 +6620,10 @@
       <c r="J17" s="15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>79</v>
       </c>
@@ -6571,8 +6654,10 @@
       <c r="J18" s="18" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+    </row>
+    <row r="19" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>82</v>
       </c>
@@ -6603,8 +6688,10 @@
       <c r="J19" s="18" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+    </row>
+    <row r="20" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>85</v>
       </c>
@@ -6635,8 +6722,10 @@
       <c r="J20" s="20" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+    </row>
+    <row r="21" spans="1:12" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>88</v>
       </c>
@@ -6667,8 +6756,10 @@
       <c r="J21" s="15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>91</v>
       </c>
@@ -6699,8 +6790,10 @@
       <c r="J22" s="16" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+    </row>
+    <row r="23" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>95</v>
       </c>
@@ -6731,8 +6824,10 @@
       <c r="J23" s="13" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>99</v>
       </c>
@@ -6763,8 +6858,10 @@
       <c r="J24" s="21" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+    </row>
+    <row r="25" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>102</v>
       </c>
@@ -6795,8 +6892,10 @@
       <c r="J25" s="21" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+    </row>
+    <row r="26" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>104</v>
       </c>
@@ -6827,8 +6926,10 @@
       <c r="J26" s="15" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+    </row>
+    <row r="27" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>107</v>
       </c>
@@ -6859,8 +6960,10 @@
       <c r="J27" s="21" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+    </row>
+    <row r="28" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>112</v>
       </c>
@@ -6891,8 +6994,10 @@
       <c r="J28" s="21" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+    </row>
+    <row r="29" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>114</v>
       </c>
@@ -6923,8 +7028,10 @@
       <c r="J29" s="19" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+    </row>
+    <row r="30" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>117</v>
       </c>
@@ -6955,8 +7062,10 @@
       <c r="J30" s="18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+    </row>
+    <row r="31" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
         <v>120</v>
       </c>
@@ -6987,8 +7096,10 @@
       <c r="J31" s="19" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+    </row>
+    <row r="32" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
         <v>122</v>
       </c>
@@ -7019,8 +7130,10 @@
       <c r="J32" s="19" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+    </row>
+    <row r="33" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
         <v>125</v>
       </c>
@@ -7051,8 +7164,10 @@
       <c r="J33" s="23" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+    </row>
+    <row r="34" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
         <v>128</v>
       </c>
@@ -7083,8 +7198,10 @@
       <c r="J34" s="23" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+    </row>
+    <row r="35" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>130</v>
       </c>
@@ -7115,8 +7232,10 @@
       <c r="J35" s="20" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+    </row>
+    <row r="36" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>133</v>
       </c>
@@ -7147,8 +7266,10 @@
       <c r="J36" s="15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+    </row>
+    <row r="37" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>136</v>
       </c>
@@ -7179,8 +7300,12 @@
       <c r="J37" s="15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K37" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="L37" s="11"/>
+    </row>
+    <row r="38" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>139</v>
       </c>
@@ -7211,8 +7336,10 @@
       <c r="J38" s="11" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+    </row>
+    <row r="39" spans="1:12" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
         <v>142</v>
       </c>
@@ -7243,8 +7370,12 @@
       <c r="J39" s="11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K39" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="L39" s="11"/>
+    </row>
+    <row r="40" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>145</v>
       </c>
@@ -7275,8 +7406,10 @@
       <c r="J40" s="11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+    </row>
+    <row r="41" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
         <v>148</v>
       </c>
@@ -7307,8 +7440,12 @@
       <c r="J41" s="11" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K41" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="L41" s="11"/>
+    </row>
+    <row r="42" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>151</v>
       </c>
@@ -7339,8 +7476,12 @@
       <c r="J42" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K42" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="L42" s="11"/>
+    </row>
+    <row r="43" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
         <v>155</v>
       </c>
@@ -7371,8 +7512,10 @@
       <c r="J43" s="11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+    </row>
+    <row r="44" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
         <v>157</v>
       </c>
@@ -7403,8 +7546,10 @@
       <c r="J44" s="11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+    </row>
+    <row r="45" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
         <v>159</v>
       </c>
@@ -7435,8 +7580,10 @@
       <c r="J45" s="11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+    </row>
+    <row r="46" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
         <v>161</v>
       </c>
@@ -7467,8 +7614,10 @@
       <c r="J46" s="11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+    </row>
+    <row r="47" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>163</v>
       </c>
@@ -7497,8 +7646,10 @@
       <c r="J47" s="16" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+    </row>
+    <row r="48" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
         <v>165</v>
       </c>
@@ -7529,8 +7680,10 @@
       <c r="J48" s="11" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+    </row>
+    <row r="49" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
         <v>167</v>
       </c>
@@ -7561,8 +7714,10 @@
       <c r="J49" s="11" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+    </row>
+    <row r="50" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>171</v>
       </c>
@@ -7593,8 +7748,10 @@
       <c r="J50" s="16" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+    </row>
+    <row r="51" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
         <v>173</v>
       </c>
@@ -7625,8 +7782,10 @@
       <c r="J51" s="11" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+    </row>
+    <row r="52" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
         <v>177</v>
       </c>
@@ -7657,8 +7816,10 @@
       <c r="J52" s="11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+    </row>
+    <row r="53" spans="1:12" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
         <v>178</v>
       </c>
@@ -7689,8 +7850,10 @@
       <c r="J53" s="11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+    </row>
+    <row r="54" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
         <v>179</v>
       </c>
@@ -7721,8 +7884,10 @@
       <c r="J54" s="11" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+    </row>
+    <row r="55" spans="1:12" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
         <v>181</v>
       </c>
@@ -7753,8 +7918,10 @@
       <c r="J55" s="11" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+    </row>
+    <row r="56" spans="1:12" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
         <v>183</v>
       </c>
@@ -7785,8 +7952,12 @@
       <c r="J56" s="11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K56" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="L56" s="11"/>
+    </row>
+    <row r="57" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
         <v>184</v>
       </c>
@@ -7817,8 +7988,10 @@
       <c r="J57" s="11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+    </row>
+    <row r="58" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
         <v>186</v>
       </c>
@@ -7849,8 +8022,10 @@
       <c r="J58" s="11" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+    </row>
+    <row r="59" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
         <v>189</v>
       </c>
@@ -7881,8 +8056,10 @@
       <c r="J59" s="11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+    </row>
+    <row r="60" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
         <v>191</v>
       </c>
@@ -7913,8 +8090,10 @@
       <c r="J60" s="11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+    </row>
+    <row r="61" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
         <v>192</v>
       </c>
@@ -7945,8 +8124,10 @@
       <c r="J61" s="16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+    </row>
+    <row r="62" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
         <v>193</v>
       </c>
@@ -7977,8 +8158,10 @@
       <c r="J62" s="11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" ht="40.700000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+    </row>
+    <row r="63" spans="1:12" ht="40.700000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
         <v>194</v>
       </c>
@@ -8009,8 +8192,10 @@
       <c r="J63" s="16" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+    </row>
+    <row r="64" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
         <v>196</v>
       </c>
@@ -8041,8 +8226,10 @@
       <c r="J64" s="11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+    </row>
+    <row r="65" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
         <v>199</v>
       </c>
@@ -8073,8 +8260,10 @@
       <c r="J65" s="11" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+    </row>
+    <row r="66" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
         <v>202</v>
       </c>
@@ -8105,8 +8294,10 @@
       <c r="J66" s="16" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+    </row>
+    <row r="67" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
         <v>205</v>
       </c>
@@ -8137,8 +8328,10 @@
       <c r="J67" s="11" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+    </row>
+    <row r="68" spans="1:12" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
         <v>208</v>
       </c>
@@ -8169,8 +8362,10 @@
       <c r="J68" s="11" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+    </row>
+    <row r="69" spans="1:12" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
         <v>209</v>
       </c>
@@ -8201,8 +8396,10 @@
       <c r="J69" s="11" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+    </row>
+    <row r="70" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
         <v>211</v>
       </c>
@@ -8233,8 +8430,10 @@
       <c r="J70" s="11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+    </row>
+    <row r="71" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
         <v>213</v>
       </c>
@@ -8265,8 +8464,10 @@
       <c r="J71" s="11" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+    </row>
+    <row r="72" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
         <v>214</v>
       </c>
@@ -8297,8 +8498,10 @@
       <c r="J72" s="11" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+    </row>
+    <row r="73" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
         <v>218</v>
       </c>
@@ -8329,8 +8532,10 @@
       <c r="J73" s="11" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+    </row>
+    <row r="74" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
         <v>219</v>
       </c>
@@ -8361,8 +8566,10 @@
       <c r="J74" s="11" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+    </row>
+    <row r="75" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
         <v>221</v>
       </c>
@@ -8393,8 +8600,10 @@
       <c r="J75" s="11" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+    </row>
+    <row r="76" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
         <v>224</v>
       </c>
@@ -8425,8 +8634,10 @@
       <c r="J76" s="11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+    </row>
+    <row r="77" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
         <v>226</v>
       </c>
@@ -8457,8 +8668,10 @@
       <c r="J77" s="11" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+    </row>
+    <row r="78" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
         <v>228</v>
       </c>
@@ -8489,8 +8702,10 @@
       <c r="J78" s="11" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+    </row>
+    <row r="79" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
         <v>229</v>
       </c>
@@ -8521,8 +8736,10 @@
       <c r="J79" s="11" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+    </row>
+    <row r="80" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
         <v>232</v>
       </c>
@@ -8553,8 +8770,10 @@
       <c r="J80" s="18" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K80" s="16"/>
+      <c r="L80" s="16"/>
+    </row>
+    <row r="81" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
         <v>234</v>
       </c>
@@ -8585,8 +8804,12 @@
       <c r="J81" s="15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K81" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="L81" s="11"/>
+    </row>
+    <row r="82" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
         <v>235</v>
       </c>
@@ -8617,8 +8840,10 @@
       <c r="J82" s="15" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+    </row>
+    <row r="83" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
         <v>237</v>
       </c>
@@ -8649,8 +8874,10 @@
       <c r="J83" s="11" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+    </row>
+    <row r="84" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
         <v>238</v>
       </c>
@@ -8681,8 +8908,10 @@
       <c r="J84" s="15" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+    </row>
+    <row r="85" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
         <v>240</v>
       </c>
@@ -8713,8 +8942,10 @@
       <c r="J85" s="15" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+    </row>
+    <row r="86" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
         <v>241</v>
       </c>
@@ -8745,8 +8976,10 @@
       <c r="J86" s="11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+    </row>
+    <row r="87" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
         <v>243</v>
       </c>
@@ -8777,8 +9010,10 @@
       <c r="J87" s="19" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+    </row>
+    <row r="88" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
         <v>244</v>
       </c>
@@ -8809,8 +9044,10 @@
       <c r="J88" s="19" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+    </row>
+    <row r="89" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
         <v>245</v>
       </c>
@@ -8841,8 +9078,10 @@
       <c r="J89" s="15" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+    </row>
+    <row r="90" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
         <v>246</v>
       </c>
@@ -8873,8 +9112,10 @@
       <c r="J90" s="19" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+    </row>
+    <row r="91" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
         <v>249</v>
       </c>
@@ -8905,8 +9146,12 @@
       <c r="J91" s="19" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K91" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="L91" s="11"/>
+    </row>
+    <row r="92" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
         <v>252</v>
       </c>
@@ -8937,8 +9182,10 @@
       <c r="J92" s="19" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+    </row>
+    <row r="93" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
         <v>253</v>
       </c>
@@ -8969,8 +9216,10 @@
       <c r="J93" s="15" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+    </row>
+    <row r="94" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
         <v>254</v>
       </c>
@@ -9001,8 +9250,10 @@
       <c r="J94" s="15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+    </row>
+    <row r="95" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="20" t="s">
         <v>256</v>
       </c>
@@ -9033,8 +9284,10 @@
       <c r="J95" s="20" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K95" s="16"/>
+      <c r="L95" s="16"/>
+    </row>
+    <row r="96" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
         <v>257</v>
       </c>
@@ -9065,8 +9318,10 @@
       <c r="J96" s="19" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+    </row>
+    <row r="97" spans="1:12" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
         <v>259</v>
       </c>
@@ -9097,8 +9352,10 @@
       <c r="J97" s="19" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+    </row>
+    <row r="98" spans="1:12" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
         <v>260</v>
       </c>
@@ -9129,8 +9386,10 @@
       <c r="J98" s="19" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+    </row>
+    <row r="99" spans="1:12" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="s">
         <v>262</v>
       </c>
@@ -9161,8 +9420,10 @@
       <c r="J99" s="19" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+    </row>
+    <row r="100" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="15" t="s">
         <v>264</v>
       </c>
@@ -9193,8 +9454,10 @@
       <c r="J100" s="19" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
+    </row>
+    <row r="101" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="20" t="s">
         <v>265</v>
       </c>
@@ -9225,8 +9488,10 @@
       <c r="J101" s="26" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K101" s="16"/>
+      <c r="L101" s="16"/>
+    </row>
+    <row r="102" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="16" t="s">
         <v>267</v>
       </c>
@@ -9257,8 +9522,10 @@
       <c r="J102" s="16" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K102" s="16"/>
+      <c r="L102" s="16"/>
+    </row>
+    <row r="103" spans="1:12" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
         <v>269</v>
       </c>
@@ -9289,8 +9556,10 @@
       <c r="J103" s="11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K103" s="11"/>
+      <c r="L103" s="11"/>
+    </row>
+    <row r="104" spans="1:12" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
         <v>270</v>
       </c>
@@ -9321,8 +9590,10 @@
       <c r="J104" s="11" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K104" s="11"/>
+      <c r="L104" s="11"/>
+    </row>
+    <row r="105" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
         <v>271</v>
       </c>
@@ -9353,8 +9624,10 @@
       <c r="J105" s="11" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K105" s="11"/>
+      <c r="L105" s="11"/>
+    </row>
+    <row r="106" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
         <v>272</v>
       </c>
@@ -9385,8 +9658,10 @@
       <c r="J106" s="11" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K106" s="11"/>
+      <c r="L106" s="11"/>
+    </row>
+    <row r="107" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
         <v>273</v>
       </c>
@@ -9417,8 +9692,10 @@
       <c r="J107" s="11" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K107" s="11"/>
+      <c r="L107" s="11"/>
+    </row>
+    <row r="108" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
         <v>275</v>
       </c>
@@ -9449,8 +9726,10 @@
       <c r="J108" s="11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K108" s="11"/>
+      <c r="L108" s="11"/>
+    </row>
+    <row r="109" spans="1:12" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
         <v>276</v>
       </c>
@@ -9481,8 +9760,10 @@
       <c r="J109" s="11" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K109" s="11"/>
+      <c r="L109" s="11"/>
+    </row>
+    <row r="110" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
         <v>277</v>
       </c>
@@ -9513,8 +9794,10 @@
       <c r="J110" s="11" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K110" s="11"/>
+      <c r="L110" s="11"/>
+    </row>
+    <row r="111" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
         <v>279</v>
       </c>
@@ -9545,8 +9828,10 @@
       <c r="J111" s="11" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K111" s="11"/>
+      <c r="L111" s="11"/>
+    </row>
+    <row r="112" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
         <v>280</v>
       </c>
@@ -9577,8 +9862,10 @@
       <c r="J112" s="11" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K112" s="11"/>
+      <c r="L112" s="11"/>
+    </row>
+    <row r="113" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
         <v>281</v>
       </c>
@@ -9609,8 +9896,10 @@
       <c r="J113" s="11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K113" s="11"/>
+      <c r="L113" s="11"/>
+    </row>
+    <row r="114" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
         <v>282</v>
       </c>
@@ -9641,8 +9930,10 @@
       <c r="J114" s="11" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K114" s="11"/>
+      <c r="L114" s="11"/>
+    </row>
+    <row r="115" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
         <v>284</v>
       </c>
@@ -9673,8 +9964,10 @@
       <c r="J115" s="11" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K115" s="11"/>
+      <c r="L115" s="11"/>
+    </row>
+    <row r="116" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
         <v>285</v>
       </c>
@@ -9705,8 +9998,10 @@
       <c r="J116" s="11" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K116" s="11"/>
+      <c r="L116" s="11"/>
+    </row>
+    <row r="117" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
         <v>287</v>
       </c>
@@ -9737,8 +10032,10 @@
       <c r="J117" s="11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K117" s="11"/>
+      <c r="L117" s="11"/>
+    </row>
+    <row r="118" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
         <v>290</v>
       </c>
@@ -9769,8 +10066,10 @@
       <c r="J118" s="11" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K118" s="11"/>
+      <c r="L118" s="11"/>
+    </row>
+    <row r="119" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
         <v>291</v>
       </c>
@@ -9801,8 +10100,10 @@
       <c r="J119" s="11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K119" s="11"/>
+      <c r="L119" s="11"/>
+    </row>
+    <row r="120" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
         <v>293</v>
       </c>
@@ -9833,8 +10134,10 @@
       <c r="J120" s="11" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K120" s="11"/>
+      <c r="L120" s="11"/>
+    </row>
+    <row r="121" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
         <v>294</v>
       </c>
@@ -9865,8 +10168,10 @@
       <c r="J121" s="11" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K121" s="11"/>
+      <c r="L121" s="11"/>
+    </row>
+    <row r="122" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
         <v>295</v>
       </c>
@@ -9897,8 +10202,10 @@
       <c r="J122" s="11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K122" s="11"/>
+      <c r="L122" s="11"/>
+    </row>
+    <row r="123" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
         <v>297</v>
       </c>
@@ -9929,8 +10236,10 @@
       <c r="J123" s="11" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K123" s="11"/>
+      <c r="L123" s="11"/>
+    </row>
+    <row r="124" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
         <v>298</v>
       </c>
@@ -9961,8 +10270,10 @@
       <c r="J124" s="11" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K124" s="11"/>
+      <c r="L124" s="11"/>
+    </row>
+    <row r="125" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
         <v>301</v>
       </c>
@@ -9993,8 +10304,10 @@
       <c r="J125" s="11" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K125" s="11"/>
+      <c r="L125" s="11"/>
+    </row>
+    <row r="126" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
         <v>302</v>
       </c>
@@ -10025,8 +10338,10 @@
       <c r="J126" s="11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K126" s="11"/>
+      <c r="L126" s="11"/>
+    </row>
+    <row r="127" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="16" t="s">
         <v>304</v>
       </c>
@@ -10057,8 +10372,10 @@
       <c r="J127" s="16" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K127" s="16"/>
+      <c r="L127" s="16"/>
+    </row>
+    <row r="128" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
         <v>306</v>
       </c>
@@ -10089,8 +10406,10 @@
       <c r="J128" s="11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K128" s="11"/>
+      <c r="L128" s="11"/>
+    </row>
+    <row r="129" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="16" t="s">
         <v>308</v>
       </c>
@@ -10121,8 +10440,10 @@
       <c r="J129" s="16" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K129" s="16"/>
+      <c r="L129" s="16"/>
+    </row>
+    <row r="130" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
         <v>310</v>
       </c>
@@ -10153,8 +10474,10 @@
       <c r="J130" s="11" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K130" s="11"/>
+      <c r="L130" s="11"/>
+    </row>
+    <row r="131" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
         <v>313</v>
       </c>
@@ -10185,8 +10508,10 @@
       <c r="J131" s="11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K131" s="11"/>
+      <c r="L131" s="11"/>
+    </row>
+    <row r="132" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
         <v>315</v>
       </c>
@@ -10217,8 +10542,10 @@
       <c r="J132" s="11" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K132" s="11"/>
+      <c r="L132" s="11"/>
+    </row>
+    <row r="133" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="16" t="s">
         <v>319</v>
       </c>
@@ -10249,8 +10576,10 @@
       <c r="J133" s="16" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K133" s="16"/>
+      <c r="L133" s="16"/>
+    </row>
+    <row r="134" spans="1:12" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
         <v>321</v>
       </c>
@@ -10281,8 +10610,10 @@
       <c r="J134" s="11" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K134" s="11"/>
+      <c r="L134" s="11"/>
+    </row>
+    <row r="135" spans="1:12" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
         <v>323</v>
       </c>
@@ -10313,8 +10644,10 @@
       <c r="J135" s="11" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K135" s="11"/>
+      <c r="L135" s="11"/>
+    </row>
+    <row r="136" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="16" t="s">
         <v>324</v>
       </c>
@@ -10345,8 +10678,10 @@
       <c r="J136" s="16" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K136" s="16"/>
+      <c r="L136" s="16"/>
+    </row>
+    <row r="137" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="16" t="s">
         <v>326</v>
       </c>
@@ -10377,8 +10712,10 @@
       <c r="J137" s="16" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K137" s="16"/>
+      <c r="L137" s="16"/>
+    </row>
+    <row r="138" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
         <v>327</v>
       </c>
@@ -10409,8 +10746,10 @@
       <c r="J138" s="11" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K138" s="11"/>
+      <c r="L138" s="11"/>
+    </row>
+    <row r="139" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="s">
         <v>329</v>
       </c>
@@ -10441,8 +10780,10 @@
       <c r="J139" s="11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K139" s="11"/>
+      <c r="L139" s="11"/>
+    </row>
+    <row r="140" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="11" t="s">
         <v>330</v>
       </c>
@@ -10473,8 +10814,10 @@
       <c r="J140" s="11" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K140" s="11"/>
+      <c r="L140" s="11"/>
+    </row>
+    <row r="141" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
         <v>331</v>
       </c>
@@ -10505,8 +10848,10 @@
       <c r="J141" s="11" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K141" s="11"/>
+      <c r="L141" s="11"/>
+    </row>
+    <row r="142" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="11" t="s">
         <v>333</v>
       </c>
@@ -10537,11 +10882,14 @@
       <c r="J142" s="11" t="s">
         <v>188</v>
       </c>
+      <c r="K142" s="11"/>
+      <c r="L142" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>